--- a/Only_Aboba.xlsx
+++ b/Only_Aboba.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="User Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="User Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,25 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,51 +424,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>lox</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Pupkin</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Zalupkin</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
-          <t>Surname</t>
+          <t>2/3/4</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr">
         <is>
-          <t>Bobenko</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Simonov</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>F.Name</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bobovich</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Simonovish</t>
+          <t>f</t>
         </is>
       </c>
     </row>
